--- a/MetricasDeEntrenamientos/coco20/metricas_entrenamientos.xlsx
+++ b/MetricasDeEntrenamientos/coco20/metricas_entrenamientos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H330"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,22 +493,22 @@
         <v>36335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.477</v>
+        <v>0.671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.323</v>
+        <v>0.532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.33</v>
+        <v>0.584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.219</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,22 +523,22 @@
         <v>10777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.651</v>
+        <v>0.792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.603</v>
+        <v>0.71</v>
       </c>
       <c r="G3" t="n">
-        <v>0.646</v>
+        <v>0.794</v>
       </c>
       <c r="H3" t="n">
-        <v>0.41</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,22 +553,22 @@
         <v>314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.494</v>
+        <v>0.715</v>
       </c>
       <c r="F4" t="n">
-        <v>0.245</v>
+        <v>0.452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.254</v>
+        <v>0.537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.143</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -583,22 +583,22 @@
         <v>1918</v>
       </c>
       <c r="E5" t="n">
-        <v>0.536</v>
+        <v>0.723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.424</v>
+        <v>0.579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.419</v>
+        <v>0.651</v>
       </c>
       <c r="H5" t="n">
-        <v>0.252</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -613,22 +613,22 @@
         <v>367</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517</v>
+        <v>0.736</v>
       </c>
       <c r="F6" t="n">
-        <v>0.458</v>
+        <v>0.616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.482</v>
+        <v>0.705</v>
       </c>
       <c r="H6" t="n">
-        <v>0.263</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -643,22 +643,22 @@
         <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.536</v>
+        <v>0.776</v>
       </c>
       <c r="F7" t="n">
-        <v>0.601</v>
+        <v>0.825</v>
       </c>
       <c r="G7" t="n">
-        <v>0.582</v>
+        <v>0.881</v>
       </c>
       <c r="H7" t="n">
-        <v>0.415</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -673,22 +673,22 @@
         <v>283</v>
       </c>
       <c r="E8" t="n">
-        <v>0.63</v>
+        <v>0.799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.554</v>
+        <v>0.77</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607</v>
+        <v>0.828</v>
       </c>
       <c r="H8" t="n">
-        <v>0.484</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -703,22 +703,22 @@
         <v>190</v>
       </c>
       <c r="E9" t="n">
-        <v>0.618</v>
+        <v>0.844</v>
       </c>
       <c r="F9" t="n">
-        <v>0.668</v>
+        <v>0.789</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="H9" t="n">
-        <v>0.485</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -733,22 +733,22 @@
         <v>414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.389</v>
+        <v>0.6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.302</v>
+        <v>0.464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.278</v>
+        <v>0.537</v>
       </c>
       <c r="H10" t="n">
-        <v>0.171</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -763,22 +763,22 @@
         <v>424</v>
       </c>
       <c r="E11" t="n">
-        <v>0.394</v>
+        <v>0.657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.255</v>
+        <v>0.399</v>
       </c>
       <c r="G11" t="n">
-        <v>0.221</v>
+        <v>0.474</v>
       </c>
       <c r="H11" t="n">
-        <v>0.107</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -793,22 +793,22 @@
         <v>411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.45</v>
+        <v>0.608</v>
       </c>
       <c r="F12" t="n">
-        <v>0.153</v>
+        <v>0.355</v>
       </c>
       <c r="G12" t="n">
-        <v>0.169</v>
+        <v>0.379</v>
       </c>
       <c r="H12" t="n">
-        <v>0.104</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -823,22 +823,22 @@
         <v>427</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>0.384</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231</v>
+        <v>0.473</v>
       </c>
       <c r="H13" t="n">
-        <v>0.138</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -853,22 +853,22 @@
         <v>202</v>
       </c>
       <c r="E14" t="n">
-        <v>0.52</v>
+        <v>0.803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.658</v>
+        <v>0.847</v>
       </c>
       <c r="G14" t="n">
-        <v>0.647</v>
+        <v>0.877</v>
       </c>
       <c r="H14" t="n">
-        <v>0.436</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,22 +883,22 @@
         <v>218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.461</v>
+        <v>0.697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.459</v>
+        <v>0.757</v>
       </c>
       <c r="G15" t="n">
-        <v>0.426</v>
+        <v>0.772</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -913,22 +913,22 @@
         <v>272</v>
       </c>
       <c r="E16" t="n">
-        <v>0.466</v>
+        <v>0.802</v>
       </c>
       <c r="F16" t="n">
-        <v>0.515</v>
+        <v>0.757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.489</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.33</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -943,22 +943,22 @@
         <v>354</v>
       </c>
       <c r="E17" t="n">
-        <v>0.407</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.515</v>
+        <v>0.709</v>
       </c>
       <c r="G17" t="n">
-        <v>0.434</v>
+        <v>0.743</v>
       </c>
       <c r="H17" t="n">
-        <v>0.265</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -973,22 +973,22 @@
         <v>372</v>
       </c>
       <c r="E18" t="n">
-        <v>0.457</v>
+        <v>0.71</v>
       </c>
       <c r="F18" t="n">
-        <v>0.446</v>
+        <v>0.669</v>
       </c>
       <c r="G18" t="n">
-        <v>0.419</v>
+        <v>0.743</v>
       </c>
       <c r="H18" t="n">
-        <v>0.275</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1003,22 +1003,22 @@
         <v>252</v>
       </c>
       <c r="E19" t="n">
-        <v>0.61</v>
+        <v>0.777</v>
       </c>
       <c r="F19" t="n">
-        <v>0.601</v>
+        <v>0.893</v>
       </c>
       <c r="G19" t="n">
-        <v>0.626</v>
+        <v>0.857</v>
       </c>
       <c r="H19" t="n">
-        <v>0.442</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1033,22 +1033,22 @@
         <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>0.461</v>
+        <v>0.804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.634</v>
+        <v>0.75</v>
       </c>
       <c r="G20" t="n">
-        <v>0.611</v>
+        <v>0.79</v>
       </c>
       <c r="H20" t="n">
-        <v>0.477</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1063,22 +1063,22 @@
         <v>266</v>
       </c>
       <c r="E21" t="n">
-        <v>0.636</v>
+        <v>0.822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.729</v>
+        <v>0.831</v>
       </c>
       <c r="G21" t="n">
-        <v>0.783</v>
+        <v>0.899</v>
       </c>
       <c r="H21" t="n">
-        <v>0.531</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1093,22 +1093,22 @@
         <v>232</v>
       </c>
       <c r="E22" t="n">
-        <v>0.765</v>
+        <v>0.873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.728</v>
+        <v>0.875</v>
       </c>
       <c r="G22" t="n">
-        <v>0.76</v>
+        <v>0.909</v>
       </c>
       <c r="H22" t="n">
-        <v>0.534</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1123,22 +1123,22 @@
         <v>371</v>
       </c>
       <c r="E23" t="n">
-        <v>0.32</v>
+        <v>0.527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0458</v>
+        <v>0.208</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0728</v>
+        <v>0.269</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0396</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1153,22 +1153,22 @@
         <v>407</v>
       </c>
       <c r="E24" t="n">
-        <v>0.443</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.332</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.318</v>
+        <v>0.596</v>
       </c>
       <c r="H24" t="n">
-        <v>0.181</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1183,22 +1183,22 @@
         <v>540</v>
       </c>
       <c r="E25" t="n">
-        <v>0.375</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0352</v>
+        <v>0.22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0507</v>
+        <v>0.265</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0229</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1213,22 +1213,22 @@
         <v>252</v>
       </c>
       <c r="E26" t="n">
-        <v>0.446</v>
+        <v>0.732</v>
       </c>
       <c r="F26" t="n">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="G26" t="n">
-        <v>0.218</v>
+        <v>0.502</v>
       </c>
       <c r="H26" t="n">
-        <v>0.108</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1243,22 +1243,22 @@
         <v>299</v>
       </c>
       <c r="E27" t="n">
-        <v>0.423</v>
+        <v>0.628</v>
       </c>
       <c r="F27" t="n">
-        <v>0.11</v>
+        <v>0.531</v>
       </c>
       <c r="G27" t="n">
-        <v>0.15</v>
+        <v>0.547</v>
       </c>
       <c r="H27" t="n">
-        <v>0.078</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1273,22 +1273,22 @@
         <v>115</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="F28" t="n">
-        <v>0.455</v>
+        <v>0.765</v>
       </c>
       <c r="G28" t="n">
-        <v>0.532</v>
+        <v>0.838</v>
       </c>
       <c r="H28" t="n">
-        <v>0.382</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1303,22 +1303,22 @@
         <v>241</v>
       </c>
       <c r="E29" t="n">
-        <v>0.348</v>
+        <v>0.655</v>
       </c>
       <c r="F29" t="n">
-        <v>0.199</v>
+        <v>0.382</v>
       </c>
       <c r="G29" t="n">
-        <v>0.177</v>
+        <v>0.454</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0822</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1333,22 +1333,22 @@
         <v>69</v>
       </c>
       <c r="E30" t="n">
-        <v>0.397</v>
+        <v>0.642</v>
       </c>
       <c r="F30" t="n">
-        <v>0.116</v>
+        <v>0.406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.152</v>
+        <v>0.513</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0891</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1363,22 +1363,22 @@
         <v>327</v>
       </c>
       <c r="E31" t="n">
-        <v>0.461</v>
+        <v>0.633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.44</v>
+        <v>0.575</v>
       </c>
       <c r="G31" t="n">
-        <v>0.386</v>
+        <v>0.597</v>
       </c>
       <c r="H31" t="n">
-        <v>0.232</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1393,22 +1393,22 @@
         <v>179</v>
       </c>
       <c r="E32" t="n">
-        <v>0.537</v>
+        <v>0.765</v>
       </c>
       <c r="F32" t="n">
-        <v>0.408</v>
+        <v>0.746</v>
       </c>
       <c r="G32" t="n">
-        <v>0.406</v>
+        <v>0.776</v>
       </c>
       <c r="H32" t="n">
-        <v>0.244</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1423,22 +1423,22 @@
         <v>267</v>
       </c>
       <c r="E33" t="n">
-        <v>0.412</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.315</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.263</v>
+        <v>0.604</v>
       </c>
       <c r="H33" t="n">
-        <v>0.118</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1453,22 +1453,22 @@
         <v>1013</v>
       </c>
       <c r="E34" t="n">
-        <v>0.526</v>
+        <v>0.643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.237</v>
+        <v>0.506</v>
       </c>
       <c r="G34" t="n">
-        <v>0.281</v>
+        <v>0.553</v>
       </c>
       <c r="H34" t="n">
-        <v>0.169</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1483,22 +1483,22 @@
         <v>895</v>
       </c>
       <c r="E35" t="n">
-        <v>0.424</v>
+        <v>0.68</v>
       </c>
       <c r="F35" t="n">
-        <v>0.332</v>
+        <v>0.501</v>
       </c>
       <c r="G35" t="n">
-        <v>0.317</v>
+        <v>0.571</v>
       </c>
       <c r="H35" t="n">
-        <v>0.215</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1513,22 +1513,22 @@
         <v>215</v>
       </c>
       <c r="E36" t="n">
-        <v>0.299</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0934</v>
+        <v>0.447</v>
       </c>
       <c r="G36" t="n">
-        <v>0.109</v>
+        <v>0.535</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0558</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1543,22 +1543,22 @@
         <v>325</v>
       </c>
       <c r="E37" t="n">
-        <v>0.248</v>
+        <v>0.526</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0523</v>
+        <v>0.222</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0559</v>
+        <v>0.285</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0256</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1573,22 +1573,22 @@
         <v>253</v>
       </c>
       <c r="E38" t="n">
-        <v>0.188</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0198</v>
+        <v>0.265</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0316</v>
+        <v>0.282</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0173</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1603,22 +1603,22 @@
         <v>623</v>
       </c>
       <c r="E39" t="n">
-        <v>0.469</v>
+        <v>0.663</v>
       </c>
       <c r="F39" t="n">
-        <v>0.383</v>
+        <v>0.52</v>
       </c>
       <c r="G39" t="n">
-        <v>0.374</v>
+        <v>0.58</v>
       </c>
       <c r="H39" t="n">
-        <v>0.267</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1633,22 +1633,22 @@
         <v>370</v>
       </c>
       <c r="E40" t="n">
-        <v>0.389</v>
+        <v>0.57</v>
       </c>
       <c r="F40" t="n">
-        <v>0.133</v>
+        <v>0.286</v>
       </c>
       <c r="G40" t="n">
-        <v>0.146</v>
+        <v>0.356</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0766</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1663,22 +1663,22 @@
         <v>236</v>
       </c>
       <c r="E41" t="n">
-        <v>0.365</v>
+        <v>0.499</v>
       </c>
       <c r="F41" t="n">
-        <v>0.117</v>
+        <v>0.186</v>
       </c>
       <c r="G41" t="n">
-        <v>0.119</v>
+        <v>0.251</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0832</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1693,22 +1693,22 @@
         <v>177</v>
       </c>
       <c r="E42" t="n">
-        <v>0.343</v>
+        <v>0.634</v>
       </c>
       <c r="F42" t="n">
-        <v>0.316</v>
+        <v>0.407</v>
       </c>
       <c r="G42" t="n">
-        <v>0.256</v>
+        <v>0.466</v>
       </c>
       <c r="H42" t="n">
-        <v>0.172</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1723,22 +1723,22 @@
         <v>285</v>
       </c>
       <c r="E43" t="n">
-        <v>0.383</v>
+        <v>0.476</v>
       </c>
       <c r="F43" t="n">
-        <v>0.256</v>
+        <v>0.284</v>
       </c>
       <c r="G43" t="n">
-        <v>0.225</v>
+        <v>0.321</v>
       </c>
       <c r="H43" t="n">
-        <v>0.178</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1753,22 +1753,22 @@
         <v>312</v>
       </c>
       <c r="E44" t="n">
-        <v>0.395</v>
+        <v>0.55</v>
       </c>
       <c r="F44" t="n">
-        <v>0.314</v>
+        <v>0.301</v>
       </c>
       <c r="G44" t="n">
-        <v>0.268</v>
+        <v>0.372</v>
       </c>
       <c r="H44" t="n">
-        <v>0.137</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1783,22 +1783,22 @@
         <v>365</v>
       </c>
       <c r="E45" t="n">
-        <v>0.387</v>
+        <v>0.421</v>
       </c>
       <c r="F45" t="n">
-        <v>0.123</v>
+        <v>0.27</v>
       </c>
       <c r="G45" t="n">
-        <v>0.148</v>
+        <v>0.292</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1813,22 +1813,22 @@
         <v>284</v>
       </c>
       <c r="E46" t="n">
-        <v>0.569</v>
+        <v>0.78</v>
       </c>
       <c r="F46" t="n">
-        <v>0.535</v>
+        <v>0.655</v>
       </c>
       <c r="G46" t="n">
-        <v>0.546</v>
+        <v>0.723</v>
       </c>
       <c r="H46" t="n">
-        <v>0.396</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1843,22 +1843,22 @@
         <v>328</v>
       </c>
       <c r="E47" t="n">
-        <v>0.391</v>
+        <v>0.467</v>
       </c>
       <c r="F47" t="n">
-        <v>0.348</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.298</v>
+        <v>0.518</v>
       </c>
       <c r="H47" t="n">
-        <v>0.232</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1873,22 +1873,22 @@
         <v>310</v>
       </c>
       <c r="E48" t="n">
-        <v>0.354</v>
+        <v>0.617</v>
       </c>
       <c r="F48" t="n">
-        <v>0.213</v>
+        <v>0.484</v>
       </c>
       <c r="G48" t="n">
-        <v>0.235</v>
+        <v>0.51</v>
       </c>
       <c r="H48" t="n">
-        <v>0.145</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1903,22 +1903,22 @@
         <v>1771</v>
       </c>
       <c r="E49" t="n">
-        <v>0.456</v>
+        <v>0.639</v>
       </c>
       <c r="F49" t="n">
-        <v>0.187</v>
+        <v>0.415</v>
       </c>
       <c r="G49" t="n">
-        <v>0.222</v>
+        <v>0.492</v>
       </c>
       <c r="H49" t="n">
-        <v>0.127</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1933,22 +1933,22 @@
         <v>261</v>
       </c>
       <c r="E50" t="n">
-        <v>0.435</v>
+        <v>0.637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.451</v>
+        <v>0.579</v>
       </c>
       <c r="G50" t="n">
-        <v>0.395</v>
+        <v>0.634</v>
       </c>
       <c r="H50" t="n">
-        <v>0.274</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1963,22 +1963,22 @@
         <v>163</v>
       </c>
       <c r="E51" t="n">
-        <v>0.452</v>
+        <v>0.678</v>
       </c>
       <c r="F51" t="n">
-        <v>0.534</v>
+        <v>0.626</v>
       </c>
       <c r="G51" t="n">
-        <v>0.489</v>
+        <v>0.67</v>
       </c>
       <c r="H51" t="n">
-        <v>0.327</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1993,22 +1993,22 @@
         <v>179</v>
       </c>
       <c r="E52" t="n">
-        <v>0.515</v>
+        <v>0.72</v>
       </c>
       <c r="F52" t="n">
-        <v>0.57</v>
+        <v>0.732</v>
       </c>
       <c r="G52" t="n">
-        <v>0.589</v>
+        <v>0.77</v>
       </c>
       <c r="H52" t="n">
-        <v>0.458</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2023,22 +2023,22 @@
         <v>288</v>
       </c>
       <c r="E53" t="n">
-        <v>0.516</v>
+        <v>0.754</v>
       </c>
       <c r="F53" t="n">
-        <v>0.493</v>
+        <v>0.694</v>
       </c>
       <c r="G53" t="n">
-        <v>0.502</v>
+        <v>0.758</v>
       </c>
       <c r="H53" t="n">
-        <v>0.364</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2053,22 +2053,22 @@
         <v>231</v>
       </c>
       <c r="E54" t="n">
-        <v>0.542</v>
+        <v>0.715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.431</v>
+        <v>0.696</v>
       </c>
       <c r="G54" t="n">
-        <v>0.464</v>
+        <v>0.742</v>
       </c>
       <c r="H54" t="n">
-        <v>0.346</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2083,22 +2083,22 @@
         <v>106</v>
       </c>
       <c r="E55" t="n">
-        <v>0.544</v>
+        <v>0.756</v>
       </c>
       <c r="F55" t="n">
-        <v>0.416</v>
+        <v>0.729</v>
       </c>
       <c r="G55" t="n">
-        <v>0.476</v>
+        <v>0.774</v>
       </c>
       <c r="H55" t="n">
-        <v>0.361</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2113,22 +2113,22 @@
         <v>283</v>
       </c>
       <c r="E56" t="n">
-        <v>0.329</v>
+        <v>0.582</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0813</v>
+        <v>0.403</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0.457</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0599</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2143,22 +2143,22 @@
         <v>153</v>
       </c>
       <c r="E57" t="n">
-        <v>0.433</v>
+        <v>0.706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.451</v>
+        <v>0.542</v>
       </c>
       <c r="G57" t="n">
-        <v>0.436</v>
+        <v>0.695</v>
       </c>
       <c r="H57" t="n">
-        <v>0.289</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2173,22 +2173,22 @@
         <v>55</v>
       </c>
       <c r="E58" t="n">
-        <v>0.521</v>
+        <v>0.619</v>
       </c>
       <c r="F58" t="n">
-        <v>0.364</v>
+        <v>0.679</v>
       </c>
       <c r="G58" t="n">
-        <v>0.36</v>
+        <v>0.706</v>
       </c>
       <c r="H58" t="n">
-        <v>0.26</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2203,22 +2203,22 @@
         <v>143</v>
       </c>
       <c r="E59" t="n">
-        <v>0.541</v>
+        <v>0.634</v>
       </c>
       <c r="F59" t="n">
-        <v>0.272</v>
+        <v>0.517</v>
       </c>
       <c r="G59" t="n">
-        <v>0.295</v>
+        <v>0.545</v>
       </c>
       <c r="H59" t="n">
-        <v>0.17</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2233,22 +2233,22 @@
         <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="G60" t="n">
-        <v>0.167</v>
+        <v>0.571</v>
       </c>
       <c r="H60" t="n">
-        <v>0.123</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2263,22 +2263,22 @@
         <v>225</v>
       </c>
       <c r="E61" t="n">
-        <v>0.464</v>
+        <v>0.653</v>
       </c>
       <c r="F61" t="n">
-        <v>0.356</v>
+        <v>0.529</v>
       </c>
       <c r="G61" t="n">
-        <v>0.346</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0.216</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2293,22 +2293,22 @@
         <v>126</v>
       </c>
       <c r="E62" t="n">
-        <v>0.474</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.397</v>
+        <v>0.627</v>
       </c>
       <c r="G62" t="n">
-        <v>0.396</v>
+        <v>0.713</v>
       </c>
       <c r="H62" t="n">
-        <v>0.28</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2323,22 +2323,22 @@
         <v>1129</v>
       </c>
       <c r="E63" t="n">
-        <v>0.26</v>
+        <v>0.453</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0552</v>
+        <v>0.0983</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0741</v>
+        <v>0.213</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0289</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2353,22 +2353,22 @@
         <v>267</v>
       </c>
       <c r="E64" t="n">
-        <v>0.542</v>
+        <v>0.754</v>
       </c>
       <c r="F64" t="n">
-        <v>0.539</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.528</v>
+        <v>0.723</v>
       </c>
       <c r="H64" t="n">
-        <v>0.334</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2383,22 +2383,22 @@
         <v>274</v>
       </c>
       <c r="E65" t="n">
-        <v>0.514</v>
+        <v>0.603</v>
       </c>
       <c r="F65" t="n">
-        <v>0.201</v>
+        <v>0.54</v>
       </c>
       <c r="G65" t="n">
-        <v>0.24</v>
+        <v>0.532</v>
       </c>
       <c r="H65" t="n">
-        <v>0.149</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2413,22 +2413,22 @@
         <v>36</v>
       </c>
       <c r="E66" t="n">
-        <v>0.136</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0278</v>
+        <v>0.444</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0331</v>
+        <v>0.43</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0227</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>coco_20_DA_clasico</t>
+          <t>coco_20_DA_classic</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2443,16 +2443,16 @@
         <v>57</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0.329</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0296</v>
+        <v>0.294</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0118</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="68">
@@ -4438,7 +4438,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4453,22 +4453,22 @@
         <v>36335</v>
       </c>
       <c r="E134" t="n">
-        <v>0.458</v>
+        <v>0.666</v>
       </c>
       <c r="F134" t="n">
-        <v>0.327</v>
+        <v>0.537</v>
       </c>
       <c r="G134" t="n">
-        <v>0.32</v>
+        <v>0.582</v>
       </c>
       <c r="H134" t="n">
-        <v>0.209</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4483,22 +4483,22 @@
         <v>10777</v>
       </c>
       <c r="E135" t="n">
-        <v>0.655</v>
+        <v>0.788</v>
       </c>
       <c r="F135" t="n">
-        <v>0.609</v>
+        <v>0.723</v>
       </c>
       <c r="G135" t="n">
-        <v>0.653</v>
+        <v>0.802</v>
       </c>
       <c r="H135" t="n">
-        <v>0.412</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4513,22 +4513,22 @@
         <v>314</v>
       </c>
       <c r="E136" t="n">
-        <v>0.495</v>
+        <v>0.697</v>
       </c>
       <c r="F136" t="n">
-        <v>0.226</v>
+        <v>0.477</v>
       </c>
       <c r="G136" t="n">
-        <v>0.236</v>
+        <v>0.539</v>
       </c>
       <c r="H136" t="n">
-        <v>0.129</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4543,22 +4543,22 @@
         <v>1918</v>
       </c>
       <c r="E137" t="n">
-        <v>0.535</v>
+        <v>0.72</v>
       </c>
       <c r="F137" t="n">
-        <v>0.412</v>
+        <v>0.613</v>
       </c>
       <c r="G137" t="n">
-        <v>0.411</v>
+        <v>0.666</v>
       </c>
       <c r="H137" t="n">
-        <v>0.244</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4573,22 +4573,22 @@
         <v>367</v>
       </c>
       <c r="E138" t="n">
-        <v>0.514</v>
+        <v>0.778</v>
       </c>
       <c r="F138" t="n">
-        <v>0.447</v>
+        <v>0.639</v>
       </c>
       <c r="G138" t="n">
-        <v>0.456</v>
+        <v>0.716</v>
       </c>
       <c r="H138" t="n">
-        <v>0.233</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4603,22 +4603,22 @@
         <v>143</v>
       </c>
       <c r="E139" t="n">
-        <v>0.502</v>
+        <v>0.788</v>
       </c>
       <c r="F139" t="n">
-        <v>0.517</v>
+        <v>0.783</v>
       </c>
       <c r="G139" t="n">
-        <v>0.553</v>
+        <v>0.847</v>
       </c>
       <c r="H139" t="n">
-        <v>0.381</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4633,22 +4633,22 @@
         <v>283</v>
       </c>
       <c r="E140" t="n">
-        <v>0.646</v>
+        <v>0.819</v>
       </c>
       <c r="F140" t="n">
-        <v>0.573</v>
+        <v>0.721</v>
       </c>
       <c r="G140" t="n">
-        <v>0.597</v>
+        <v>0.82</v>
       </c>
       <c r="H140" t="n">
-        <v>0.476</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4663,22 +4663,22 @@
         <v>190</v>
       </c>
       <c r="E141" t="n">
-        <v>0.655</v>
+        <v>0.804</v>
       </c>
       <c r="F141" t="n">
-        <v>0.637</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>0.669</v>
+        <v>0.868</v>
       </c>
       <c r="H141" t="n">
-        <v>0.488</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4693,22 +4693,22 @@
         <v>414</v>
       </c>
       <c r="E142" t="n">
-        <v>0.388</v>
+        <v>0.6</v>
       </c>
       <c r="F142" t="n">
-        <v>0.302</v>
+        <v>0.471</v>
       </c>
       <c r="G142" t="n">
-        <v>0.292</v>
+        <v>0.539</v>
       </c>
       <c r="H142" t="n">
-        <v>0.177</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4723,22 +4723,22 @@
         <v>424</v>
       </c>
       <c r="E143" t="n">
-        <v>0.384</v>
+        <v>0.646</v>
       </c>
       <c r="F143" t="n">
-        <v>0.215</v>
+        <v>0.383</v>
       </c>
       <c r="G143" t="n">
-        <v>0.201</v>
+        <v>0.498</v>
       </c>
       <c r="H143" t="n">
-        <v>0.105</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4753,22 +4753,22 @@
         <v>411</v>
       </c>
       <c r="E144" t="n">
-        <v>0.393</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>0.165</v>
+        <v>0.355</v>
       </c>
       <c r="G144" t="n">
-        <v>0.168</v>
+        <v>0.372</v>
       </c>
       <c r="H144" t="n">
-        <v>0.101</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4783,22 +4783,22 @@
         <v>427</v>
       </c>
       <c r="E145" t="n">
-        <v>0.444</v>
+        <v>0.718</v>
       </c>
       <c r="F145" t="n">
-        <v>0.159</v>
+        <v>0.419</v>
       </c>
       <c r="G145" t="n">
-        <v>0.186</v>
+        <v>0.495</v>
       </c>
       <c r="H145" t="n">
-        <v>0.116</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4813,22 +4813,22 @@
         <v>202</v>
       </c>
       <c r="E146" t="n">
-        <v>0.49</v>
+        <v>0.825</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.796</v>
       </c>
       <c r="G146" t="n">
-        <v>0.598</v>
+        <v>0.849</v>
       </c>
       <c r="H146" t="n">
-        <v>0.399</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4843,22 +4843,22 @@
         <v>218</v>
       </c>
       <c r="E147" t="n">
-        <v>0.407</v>
+        <v>0.722</v>
       </c>
       <c r="F147" t="n">
-        <v>0.454</v>
+        <v>0.711</v>
       </c>
       <c r="G147" t="n">
-        <v>0.392</v>
+        <v>0.748</v>
       </c>
       <c r="H147" t="n">
-        <v>0.282</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4873,22 +4873,22 @@
         <v>272</v>
       </c>
       <c r="E148" t="n">
-        <v>0.435</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>0.496</v>
+        <v>0.732</v>
       </c>
       <c r="G148" t="n">
-        <v>0.494</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H148" t="n">
-        <v>0.331</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4903,22 +4903,22 @@
         <v>354</v>
       </c>
       <c r="E149" t="n">
-        <v>0.353</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>0.492</v>
+        <v>0.723</v>
       </c>
       <c r="G149" t="n">
-        <v>0.406</v>
+        <v>0.74</v>
       </c>
       <c r="H149" t="n">
-        <v>0.245</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4933,22 +4933,22 @@
         <v>372</v>
       </c>
       <c r="E150" t="n">
-        <v>0.513</v>
+        <v>0.758</v>
       </c>
       <c r="F150" t="n">
-        <v>0.465</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>0.432</v>
+        <v>0.752</v>
       </c>
       <c r="H150" t="n">
-        <v>0.278</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4963,22 +4963,22 @@
         <v>252</v>
       </c>
       <c r="E151" t="n">
-        <v>0.549</v>
+        <v>0.777</v>
       </c>
       <c r="F151" t="n">
-        <v>0.587</v>
+        <v>0.865</v>
       </c>
       <c r="G151" t="n">
-        <v>0.57</v>
+        <v>0.854</v>
       </c>
       <c r="H151" t="n">
-        <v>0.41</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4993,22 +4993,22 @@
         <v>71</v>
       </c>
       <c r="E152" t="n">
-        <v>0.497</v>
+        <v>0.798</v>
       </c>
       <c r="F152" t="n">
-        <v>0.613</v>
+        <v>0.761</v>
       </c>
       <c r="G152" t="n">
-        <v>0.587</v>
+        <v>0.837</v>
       </c>
       <c r="H152" t="n">
-        <v>0.456</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5023,22 +5023,22 @@
         <v>266</v>
       </c>
       <c r="E153" t="n">
-        <v>0.651</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>0.771</v>
+        <v>0.861</v>
       </c>
       <c r="G153" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="H153" t="n">
-        <v>0.538</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5053,22 +5053,22 @@
         <v>232</v>
       </c>
       <c r="E154" t="n">
-        <v>0.743</v>
+        <v>0.881</v>
       </c>
       <c r="F154" t="n">
-        <v>0.737</v>
+        <v>0.866</v>
       </c>
       <c r="G154" t="n">
-        <v>0.772</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
-        <v>0.545</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5083,22 +5083,22 @@
         <v>371</v>
       </c>
       <c r="E155" t="n">
-        <v>0.275</v>
+        <v>0.531</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0512</v>
+        <v>0.24</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.258</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0379</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5113,22 +5113,22 @@
         <v>407</v>
       </c>
       <c r="E156" t="n">
-        <v>0.427</v>
+        <v>0.664</v>
       </c>
       <c r="F156" t="n">
-        <v>0.346</v>
+        <v>0.569</v>
       </c>
       <c r="G156" t="n">
-        <v>0.298</v>
+        <v>0.57</v>
       </c>
       <c r="H156" t="n">
-        <v>0.171</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5143,22 +5143,22 @@
         <v>540</v>
       </c>
       <c r="E157" t="n">
-        <v>0.26</v>
+        <v>0.508</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0241</v>
+        <v>0.222</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0478</v>
+        <v>0.253</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0233</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5173,22 +5173,22 @@
         <v>252</v>
       </c>
       <c r="E158" t="n">
-        <v>0.429</v>
+        <v>0.748</v>
       </c>
       <c r="F158" t="n">
-        <v>0.242</v>
+        <v>0.464</v>
       </c>
       <c r="G158" t="n">
-        <v>0.24</v>
+        <v>0.514</v>
       </c>
       <c r="H158" t="n">
-        <v>0.123</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5203,22 +5203,22 @@
         <v>299</v>
       </c>
       <c r="E159" t="n">
-        <v>0.339</v>
+        <v>0.612</v>
       </c>
       <c r="F159" t="n">
-        <v>0.134</v>
+        <v>0.545</v>
       </c>
       <c r="G159" t="n">
-        <v>0.134</v>
+        <v>0.574</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0727</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5233,22 +5233,22 @@
         <v>115</v>
       </c>
       <c r="E160" t="n">
-        <v>0.543</v>
+        <v>0.783</v>
       </c>
       <c r="F160" t="n">
-        <v>0.475</v>
+        <v>0.774</v>
       </c>
       <c r="G160" t="n">
-        <v>0.472</v>
+        <v>0.831</v>
       </c>
       <c r="H160" t="n">
-        <v>0.336</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5263,22 +5263,22 @@
         <v>241</v>
       </c>
       <c r="E161" t="n">
-        <v>0.411</v>
+        <v>0.611</v>
       </c>
       <c r="F161" t="n">
-        <v>0.188</v>
+        <v>0.419</v>
       </c>
       <c r="G161" t="n">
-        <v>0.196</v>
+        <v>0.453</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0825</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5293,22 +5293,22 @@
         <v>69</v>
       </c>
       <c r="E162" t="n">
-        <v>0.211</v>
+        <v>0.617</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0725</v>
+        <v>0.391</v>
       </c>
       <c r="G162" t="n">
-        <v>0.109</v>
+        <v>0.45</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0584</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5323,22 +5323,22 @@
         <v>327</v>
       </c>
       <c r="E163" t="n">
-        <v>0.401</v>
+        <v>0.592</v>
       </c>
       <c r="F163" t="n">
-        <v>0.401</v>
+        <v>0.593</v>
       </c>
       <c r="G163" t="n">
-        <v>0.353</v>
+        <v>0.589</v>
       </c>
       <c r="H163" t="n">
-        <v>0.209</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5353,22 +5353,22 @@
         <v>179</v>
       </c>
       <c r="E164" t="n">
-        <v>0.503</v>
+        <v>0.77</v>
       </c>
       <c r="F164" t="n">
-        <v>0.43</v>
+        <v>0.754</v>
       </c>
       <c r="G164" t="n">
-        <v>0.386</v>
+        <v>0.768</v>
       </c>
       <c r="H164" t="n">
-        <v>0.213</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5383,22 +5383,22 @@
         <v>267</v>
       </c>
       <c r="E165" t="n">
-        <v>0.407</v>
+        <v>0.713</v>
       </c>
       <c r="F165" t="n">
-        <v>0.27</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>0.228</v>
+        <v>0.596</v>
       </c>
       <c r="H165" t="n">
-        <v>0.103</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5413,22 +5413,22 @@
         <v>1013</v>
       </c>
       <c r="E166" t="n">
-        <v>0.483</v>
+        <v>0.612</v>
       </c>
       <c r="F166" t="n">
-        <v>0.25</v>
+        <v>0.523</v>
       </c>
       <c r="G166" t="n">
-        <v>0.273</v>
+        <v>0.554</v>
       </c>
       <c r="H166" t="n">
-        <v>0.165</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5443,22 +5443,22 @@
         <v>895</v>
       </c>
       <c r="E167" t="n">
-        <v>0.418</v>
+        <v>0.628</v>
       </c>
       <c r="F167" t="n">
-        <v>0.322</v>
+        <v>0.542</v>
       </c>
       <c r="G167" t="n">
-        <v>0.306</v>
+        <v>0.576</v>
       </c>
       <c r="H167" t="n">
-        <v>0.206</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5473,22 +5473,22 @@
         <v>215</v>
       </c>
       <c r="E168" t="n">
-        <v>0.319</v>
+        <v>0.642</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0827</v>
+        <v>0.433</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0863</v>
+        <v>0.499</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0439</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5503,22 +5503,22 @@
         <v>325</v>
       </c>
       <c r="E169" t="n">
-        <v>0.27</v>
+        <v>0.492</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0585</v>
+        <v>0.24</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0562</v>
+        <v>0.256</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0252</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5533,22 +5533,22 @@
         <v>253</v>
       </c>
       <c r="E170" t="n">
-        <v>0.09569999999999999</v>
+        <v>0.469</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00791</v>
+        <v>0.265</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0313</v>
+        <v>0.288</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0153</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5563,22 +5563,22 @@
         <v>623</v>
       </c>
       <c r="E171" t="n">
-        <v>0.417</v>
+        <v>0.616</v>
       </c>
       <c r="F171" t="n">
-        <v>0.374</v>
+        <v>0.514</v>
       </c>
       <c r="G171" t="n">
-        <v>0.333</v>
+        <v>0.57</v>
       </c>
       <c r="H171" t="n">
-        <v>0.238</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5593,22 +5593,22 @@
         <v>370</v>
       </c>
       <c r="E172" t="n">
-        <v>0.333</v>
+        <v>0.544</v>
       </c>
       <c r="F172" t="n">
-        <v>0.165</v>
+        <v>0.286</v>
       </c>
       <c r="G172" t="n">
-        <v>0.142</v>
+        <v>0.344</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0711</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5623,22 +5623,22 @@
         <v>236</v>
       </c>
       <c r="E173" t="n">
-        <v>0.282</v>
+        <v>0.44</v>
       </c>
       <c r="F173" t="n">
-        <v>0.144</v>
+        <v>0.203</v>
       </c>
       <c r="G173" t="n">
-        <v>0.107</v>
+        <v>0.228</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0688</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5653,22 +5653,22 @@
         <v>177</v>
       </c>
       <c r="E174" t="n">
-        <v>0.357</v>
+        <v>0.612</v>
       </c>
       <c r="F174" t="n">
-        <v>0.362</v>
+        <v>0.435</v>
       </c>
       <c r="G174" t="n">
-        <v>0.307</v>
+        <v>0.472</v>
       </c>
       <c r="H174" t="n">
-        <v>0.193</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5683,22 +5683,22 @@
         <v>285</v>
       </c>
       <c r="E175" t="n">
-        <v>0.314</v>
+        <v>0.518</v>
       </c>
       <c r="F175" t="n">
-        <v>0.246</v>
+        <v>0.326</v>
       </c>
       <c r="G175" t="n">
-        <v>0.212</v>
+        <v>0.339</v>
       </c>
       <c r="H175" t="n">
-        <v>0.164</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5713,22 +5713,22 @@
         <v>312</v>
       </c>
       <c r="E176" t="n">
-        <v>0.353</v>
+        <v>0.516</v>
       </c>
       <c r="F176" t="n">
-        <v>0.292</v>
+        <v>0.318</v>
       </c>
       <c r="G176" t="n">
-        <v>0.274</v>
+        <v>0.383</v>
       </c>
       <c r="H176" t="n">
-        <v>0.138</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5743,22 +5743,22 @@
         <v>365</v>
       </c>
       <c r="E177" t="n">
-        <v>0.27</v>
+        <v>0.374</v>
       </c>
       <c r="F177" t="n">
-        <v>0.203</v>
+        <v>0.316</v>
       </c>
       <c r="G177" t="n">
-        <v>0.14</v>
+        <v>0.289</v>
       </c>
       <c r="H177" t="n">
-        <v>0.075</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5773,22 +5773,22 @@
         <v>284</v>
       </c>
       <c r="E178" t="n">
-        <v>0.603</v>
+        <v>0.747</v>
       </c>
       <c r="F178" t="n">
-        <v>0.518</v>
+        <v>0.655</v>
       </c>
       <c r="G178" t="n">
-        <v>0.529</v>
+        <v>0.731</v>
       </c>
       <c r="H178" t="n">
-        <v>0.385</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5803,22 +5803,22 @@
         <v>328</v>
       </c>
       <c r="E179" t="n">
-        <v>0.36</v>
+        <v>0.499</v>
       </c>
       <c r="F179" t="n">
-        <v>0.274</v>
+        <v>0.53</v>
       </c>
       <c r="G179" t="n">
-        <v>0.249</v>
+        <v>0.484</v>
       </c>
       <c r="H179" t="n">
-        <v>0.188</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5833,22 +5833,22 @@
         <v>310</v>
       </c>
       <c r="E180" t="n">
-        <v>0.423</v>
+        <v>0.632</v>
       </c>
       <c r="F180" t="n">
-        <v>0.194</v>
+        <v>0.509</v>
       </c>
       <c r="G180" t="n">
-        <v>0.219</v>
+        <v>0.531</v>
       </c>
       <c r="H180" t="n">
-        <v>0.143</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5863,22 +5863,22 @@
         <v>1771</v>
       </c>
       <c r="E181" t="n">
-        <v>0.385</v>
+        <v>0.623</v>
       </c>
       <c r="F181" t="n">
-        <v>0.208</v>
+        <v>0.445</v>
       </c>
       <c r="G181" t="n">
-        <v>0.204</v>
+        <v>0.498</v>
       </c>
       <c r="H181" t="n">
-        <v>0.117</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5893,22 +5893,22 @@
         <v>261</v>
       </c>
       <c r="E182" t="n">
-        <v>0.413</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>0.421</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>0.361</v>
+        <v>0.594</v>
       </c>
       <c r="H182" t="n">
-        <v>0.24</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5923,22 +5923,22 @@
         <v>163</v>
       </c>
       <c r="E183" t="n">
-        <v>0.479</v>
+        <v>0.709</v>
       </c>
       <c r="F183" t="n">
-        <v>0.509</v>
+        <v>0.577</v>
       </c>
       <c r="G183" t="n">
-        <v>0.46</v>
+        <v>0.647</v>
       </c>
       <c r="H183" t="n">
-        <v>0.296</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5953,22 +5953,22 @@
         <v>179</v>
       </c>
       <c r="E184" t="n">
-        <v>0.508</v>
+        <v>0.726</v>
       </c>
       <c r="F184" t="n">
-        <v>0.609</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>0.592</v>
+        <v>0.748</v>
       </c>
       <c r="H184" t="n">
-        <v>0.453</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5983,22 +5983,22 @@
         <v>288</v>
       </c>
       <c r="E185" t="n">
-        <v>0.514</v>
+        <v>0.755</v>
       </c>
       <c r="F185" t="n">
-        <v>0.538</v>
+        <v>0.672</v>
       </c>
       <c r="G185" t="n">
-        <v>0.514</v>
+        <v>0.747</v>
       </c>
       <c r="H185" t="n">
-        <v>0.369</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6013,22 +6013,22 @@
         <v>231</v>
       </c>
       <c r="E186" t="n">
-        <v>0.534</v>
+        <v>0.725</v>
       </c>
       <c r="F186" t="n">
-        <v>0.459</v>
+        <v>0.71</v>
       </c>
       <c r="G186" t="n">
-        <v>0.469</v>
+        <v>0.762</v>
       </c>
       <c r="H186" t="n">
-        <v>0.349</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6043,22 +6043,22 @@
         <v>106</v>
       </c>
       <c r="E187" t="n">
-        <v>0.588</v>
+        <v>0.73</v>
       </c>
       <c r="F187" t="n">
-        <v>0.471</v>
+        <v>0.745</v>
       </c>
       <c r="G187" t="n">
-        <v>0.497</v>
+        <v>0.796</v>
       </c>
       <c r="H187" t="n">
-        <v>0.361</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6073,22 +6073,22 @@
         <v>283</v>
       </c>
       <c r="E188" t="n">
-        <v>0.281</v>
+        <v>0.603</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0774</v>
+        <v>0.442</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0828</v>
+        <v>0.494</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0437</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6103,22 +6103,22 @@
         <v>153</v>
       </c>
       <c r="E189" t="n">
-        <v>0.434</v>
+        <v>0.707</v>
       </c>
       <c r="F189" t="n">
-        <v>0.477</v>
+        <v>0.575</v>
       </c>
       <c r="G189" t="n">
-        <v>0.439</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H189" t="n">
-        <v>0.278</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6133,22 +6133,22 @@
         <v>55</v>
       </c>
       <c r="E190" t="n">
-        <v>0.494</v>
+        <v>0.577</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G190" t="n">
-        <v>0.399</v>
+        <v>0.717</v>
       </c>
       <c r="H190" t="n">
-        <v>0.295</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6163,22 +6163,22 @@
         <v>143</v>
       </c>
       <c r="E191" t="n">
-        <v>0.401</v>
+        <v>0.608</v>
       </c>
       <c r="F191" t="n">
-        <v>0.252</v>
+        <v>0.503</v>
       </c>
       <c r="G191" t="n">
-        <v>0.249</v>
+        <v>0.53</v>
       </c>
       <c r="H191" t="n">
-        <v>0.137</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6193,22 +6193,22 @@
         <v>9</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0.608</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0435</v>
+        <v>0.491</v>
       </c>
       <c r="H192" t="n">
-        <v>0.0268</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6223,22 +6223,22 @@
         <v>225</v>
       </c>
       <c r="E193" t="n">
-        <v>0.393</v>
+        <v>0.639</v>
       </c>
       <c r="F193" t="n">
-        <v>0.329</v>
+        <v>0.529</v>
       </c>
       <c r="G193" t="n">
-        <v>0.322</v>
+        <v>0.571</v>
       </c>
       <c r="H193" t="n">
-        <v>0.202</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6253,22 +6253,22 @@
         <v>126</v>
       </c>
       <c r="E194" t="n">
-        <v>0.539</v>
+        <v>0.735</v>
       </c>
       <c r="F194" t="n">
-        <v>0.398</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>0.428</v>
+        <v>0.717</v>
       </c>
       <c r="H194" t="n">
-        <v>0.291</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6283,22 +6283,22 @@
         <v>1129</v>
       </c>
       <c r="E195" t="n">
-        <v>0.199</v>
+        <v>0.421</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0363</v>
+        <v>0.157</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0696</v>
+        <v>0.211</v>
       </c>
       <c r="H195" t="n">
-        <v>0.0239</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6313,22 +6313,22 @@
         <v>267</v>
       </c>
       <c r="E196" t="n">
-        <v>0.492</v>
+        <v>0.729</v>
       </c>
       <c r="F196" t="n">
-        <v>0.532</v>
+        <v>0.67</v>
       </c>
       <c r="G196" t="n">
-        <v>0.539</v>
+        <v>0.705</v>
       </c>
       <c r="H196" t="n">
-        <v>0.326</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6343,22 +6343,22 @@
         <v>274</v>
       </c>
       <c r="E197" t="n">
-        <v>0.412</v>
+        <v>0.601</v>
       </c>
       <c r="F197" t="n">
-        <v>0.208</v>
+        <v>0.518</v>
       </c>
       <c r="G197" t="n">
-        <v>0.216</v>
+        <v>0.549</v>
       </c>
       <c r="H197" t="n">
-        <v>0.133</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6373,22 +6373,22 @@
         <v>36</v>
       </c>
       <c r="E198" t="n">
-        <v>0.175</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0556</v>
+        <v>0.361</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0697</v>
+        <v>0.38</v>
       </c>
       <c r="H198" t="n">
-        <v>0.0508</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>coco_20_DA_DM</t>
+          <t>coco_20_OG</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6403,22 +6403,22 @@
         <v>57</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0.578</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0163</v>
+        <v>0.335</v>
       </c>
       <c r="H199" t="n">
-        <v>0.00728</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6433,22 +6433,22 @@
         <v>36335</v>
       </c>
       <c r="E200" t="n">
-        <v>0.484</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F200" t="n">
-        <v>0.334</v>
+        <v>0.533</v>
       </c>
       <c r="G200" t="n">
-        <v>0.341</v>
+        <v>0.591</v>
       </c>
       <c r="H200" t="n">
-        <v>0.226</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6463,22 +6463,22 @@
         <v>10777</v>
       </c>
       <c r="E201" t="n">
-        <v>0.661</v>
+        <v>0.796</v>
       </c>
       <c r="F201" t="n">
-        <v>0.603</v>
+        <v>0.709</v>
       </c>
       <c r="G201" t="n">
-        <v>0.649</v>
+        <v>0.793</v>
       </c>
       <c r="H201" t="n">
-        <v>0.414</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6493,22 +6493,22 @@
         <v>314</v>
       </c>
       <c r="E202" t="n">
-        <v>0.464</v>
+        <v>0.72</v>
       </c>
       <c r="F202" t="n">
-        <v>0.259</v>
+        <v>0.475</v>
       </c>
       <c r="G202" t="n">
-        <v>0.256</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H202" t="n">
-        <v>0.139</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6523,22 +6523,22 @@
         <v>1918</v>
       </c>
       <c r="E203" t="n">
-        <v>0.534</v>
+        <v>0.716</v>
       </c>
       <c r="F203" t="n">
-        <v>0.436</v>
+        <v>0.587</v>
       </c>
       <c r="G203" t="n">
-        <v>0.433</v>
+        <v>0.652</v>
       </c>
       <c r="H203" t="n">
-        <v>0.257</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6553,22 +6553,22 @@
         <v>367</v>
       </c>
       <c r="E204" t="n">
-        <v>0.529</v>
+        <v>0.713</v>
       </c>
       <c r="F204" t="n">
-        <v>0.455</v>
+        <v>0.651</v>
       </c>
       <c r="G204" t="n">
-        <v>0.479</v>
+        <v>0.715</v>
       </c>
       <c r="H204" t="n">
-        <v>0.26</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6583,22 +6583,22 @@
         <v>143</v>
       </c>
       <c r="E205" t="n">
-        <v>0.515</v>
+        <v>0.805</v>
       </c>
       <c r="F205" t="n">
-        <v>0.65</v>
+        <v>0.825</v>
       </c>
       <c r="G205" t="n">
-        <v>0.625</v>
+        <v>0.89</v>
       </c>
       <c r="H205" t="n">
-        <v>0.426</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6613,22 +6613,22 @@
         <v>283</v>
       </c>
       <c r="E206" t="n">
-        <v>0.673</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F206" t="n">
-        <v>0.572</v>
+        <v>0.761</v>
       </c>
       <c r="G206" t="n">
-        <v>0.627</v>
+        <v>0.837</v>
       </c>
       <c r="H206" t="n">
-        <v>0.498</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6643,22 +6643,22 @@
         <v>190</v>
       </c>
       <c r="E207" t="n">
-        <v>0.625</v>
+        <v>0.874</v>
       </c>
       <c r="F207" t="n">
-        <v>0.668</v>
+        <v>0.804</v>
       </c>
       <c r="G207" t="n">
-        <v>0.71</v>
+        <v>0.881</v>
       </c>
       <c r="H207" t="n">
-        <v>0.509</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6673,22 +6673,22 @@
         <v>414</v>
       </c>
       <c r="E208" t="n">
-        <v>0.38</v>
+        <v>0.623</v>
       </c>
       <c r="F208" t="n">
-        <v>0.304</v>
+        <v>0.44</v>
       </c>
       <c r="G208" t="n">
-        <v>0.298</v>
+        <v>0.546</v>
       </c>
       <c r="H208" t="n">
-        <v>0.183</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6703,22 +6703,22 @@
         <v>424</v>
       </c>
       <c r="E209" t="n">
-        <v>0.377</v>
+        <v>0.656</v>
       </c>
       <c r="F209" t="n">
-        <v>0.262</v>
+        <v>0.365</v>
       </c>
       <c r="G209" t="n">
-        <v>0.222</v>
+        <v>0.467</v>
       </c>
       <c r="H209" t="n">
-        <v>0.104</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6733,22 +6733,22 @@
         <v>411</v>
       </c>
       <c r="E210" t="n">
-        <v>0.421</v>
+        <v>0.594</v>
       </c>
       <c r="F210" t="n">
-        <v>0.156</v>
+        <v>0.372</v>
       </c>
       <c r="G210" t="n">
-        <v>0.174</v>
+        <v>0.381</v>
       </c>
       <c r="H210" t="n">
-        <v>0.104</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6763,22 +6763,22 @@
         <v>427</v>
       </c>
       <c r="E211" t="n">
-        <v>0.554</v>
+        <v>0.721</v>
       </c>
       <c r="F211" t="n">
-        <v>0.18</v>
+        <v>0.388</v>
       </c>
       <c r="G211" t="n">
-        <v>0.219</v>
+        <v>0.486</v>
       </c>
       <c r="H211" t="n">
-        <v>0.133</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6793,22 +6793,22 @@
         <v>202</v>
       </c>
       <c r="E212" t="n">
-        <v>0.509</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="G212" t="n">
-        <v>0.627</v>
+        <v>0.889</v>
       </c>
       <c r="H212" t="n">
-        <v>0.439</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6823,22 +6823,22 @@
         <v>218</v>
       </c>
       <c r="E213" t="n">
-        <v>0.491</v>
+        <v>0.751</v>
       </c>
       <c r="F213" t="n">
-        <v>0.495</v>
+        <v>0.78</v>
       </c>
       <c r="G213" t="n">
-        <v>0.446</v>
+        <v>0.776</v>
       </c>
       <c r="H213" t="n">
-        <v>0.327</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6853,22 +6853,22 @@
         <v>272</v>
       </c>
       <c r="E214" t="n">
-        <v>0.466</v>
+        <v>0.776</v>
       </c>
       <c r="F214" t="n">
-        <v>0.489</v>
+        <v>0.754</v>
       </c>
       <c r="G214" t="n">
-        <v>0.49</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>0.321</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6883,22 +6883,22 @@
         <v>354</v>
       </c>
       <c r="E215" t="n">
-        <v>0.402</v>
+        <v>0.708</v>
       </c>
       <c r="F215" t="n">
-        <v>0.505</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>0.442</v>
+        <v>0.734</v>
       </c>
       <c r="H215" t="n">
-        <v>0.286</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6913,22 +6913,22 @@
         <v>372</v>
       </c>
       <c r="E216" t="n">
-        <v>0.476</v>
+        <v>0.733</v>
       </c>
       <c r="F216" t="n">
-        <v>0.435</v>
+        <v>0.679</v>
       </c>
       <c r="G216" t="n">
-        <v>0.416</v>
+        <v>0.752</v>
       </c>
       <c r="H216" t="n">
-        <v>0.269</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6943,22 +6943,22 @@
         <v>252</v>
       </c>
       <c r="E217" t="n">
-        <v>0.61</v>
+        <v>0.732</v>
       </c>
       <c r="F217" t="n">
-        <v>0.619</v>
+        <v>0.869</v>
       </c>
       <c r="G217" t="n">
-        <v>0.638</v>
+        <v>0.846</v>
       </c>
       <c r="H217" t="n">
-        <v>0.448</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6973,22 +6973,22 @@
         <v>71</v>
       </c>
       <c r="E218" t="n">
-        <v>0.42</v>
+        <v>0.827</v>
       </c>
       <c r="F218" t="n">
-        <v>0.648</v>
+        <v>0.775</v>
       </c>
       <c r="G218" t="n">
-        <v>0.61</v>
+        <v>0.824</v>
       </c>
       <c r="H218" t="n">
-        <v>0.48</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7003,22 +7003,22 @@
         <v>266</v>
       </c>
       <c r="E219" t="n">
-        <v>0.699</v>
+        <v>0.802</v>
       </c>
       <c r="F219" t="n">
-        <v>0.767</v>
+        <v>0.85</v>
       </c>
       <c r="G219" t="n">
-        <v>0.805</v>
+        <v>0.899</v>
       </c>
       <c r="H219" t="n">
-        <v>0.537</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7033,22 +7033,22 @@
         <v>232</v>
       </c>
       <c r="E220" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.862</v>
       </c>
       <c r="F220" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="H220" t="n">
         <v>0.733</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0.551</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7063,22 +7063,22 @@
         <v>371</v>
       </c>
       <c r="E221" t="n">
-        <v>0.378</v>
+        <v>0.519</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0606</v>
+        <v>0.221</v>
       </c>
       <c r="G221" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.276</v>
       </c>
       <c r="H221" t="n">
-        <v>0.0495</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7093,22 +7093,22 @@
         <v>407</v>
       </c>
       <c r="E222" t="n">
-        <v>0.462</v>
+        <v>0.656</v>
       </c>
       <c r="F222" t="n">
-        <v>0.329</v>
+        <v>0.555</v>
       </c>
       <c r="G222" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="H222" t="n">
-        <v>0.2</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7123,22 +7123,22 @@
         <v>540</v>
       </c>
       <c r="E223" t="n">
-        <v>0.311</v>
+        <v>0.621</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0278</v>
+        <v>0.194</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0514</v>
+        <v>0.277</v>
       </c>
       <c r="H223" t="n">
-        <v>0.0226</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7153,22 +7153,22 @@
         <v>252</v>
       </c>
       <c r="E224" t="n">
-        <v>0.494</v>
+        <v>0.733</v>
       </c>
       <c r="F224" t="n">
-        <v>0.218</v>
+        <v>0.458</v>
       </c>
       <c r="G224" t="n">
-        <v>0.241</v>
+        <v>0.524</v>
       </c>
       <c r="H224" t="n">
-        <v>0.127</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7183,22 +7183,22 @@
         <v>299</v>
       </c>
       <c r="E225" t="n">
-        <v>0.429</v>
+        <v>0.611</v>
       </c>
       <c r="F225" t="n">
-        <v>0.151</v>
+        <v>0.542</v>
       </c>
       <c r="G225" t="n">
-        <v>0.199</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H225" t="n">
-        <v>0.106</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7213,22 +7213,22 @@
         <v>115</v>
       </c>
       <c r="E226" t="n">
-        <v>0.619</v>
+        <v>0.779</v>
       </c>
       <c r="F226" t="n">
-        <v>0.522</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="G226" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="H226" t="n">
-        <v>0.413</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7243,22 +7243,22 @@
         <v>241</v>
       </c>
       <c r="E227" t="n">
-        <v>0.395</v>
+        <v>0.633</v>
       </c>
       <c r="F227" t="n">
-        <v>0.232</v>
+        <v>0.373</v>
       </c>
       <c r="G227" t="n">
-        <v>0.211</v>
+        <v>0.464</v>
       </c>
       <c r="H227" t="n">
-        <v>0.0927</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7273,22 +7273,22 @@
         <v>69</v>
       </c>
       <c r="E228" t="n">
-        <v>0.256</v>
+        <v>0.653</v>
       </c>
       <c r="F228" t="n">
-        <v>0.101</v>
+        <v>0.409</v>
       </c>
       <c r="G228" t="n">
-        <v>0.112</v>
+        <v>0.494</v>
       </c>
       <c r="H228" t="n">
-        <v>0.0658</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7303,22 +7303,22 @@
         <v>327</v>
       </c>
       <c r="E229" t="n">
-        <v>0.469</v>
+        <v>0.637</v>
       </c>
       <c r="F229" t="n">
-        <v>0.422</v>
+        <v>0.569</v>
       </c>
       <c r="G229" t="n">
-        <v>0.397</v>
+        <v>0.611</v>
       </c>
       <c r="H229" t="n">
-        <v>0.243</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7333,22 +7333,22 @@
         <v>179</v>
       </c>
       <c r="E230" t="n">
-        <v>0.52</v>
+        <v>0.726</v>
       </c>
       <c r="F230" t="n">
-        <v>0.411</v>
+        <v>0.76</v>
       </c>
       <c r="G230" t="n">
-        <v>0.408</v>
+        <v>0.758</v>
       </c>
       <c r="H230" t="n">
-        <v>0.235</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7363,22 +7363,22 @@
         <v>267</v>
       </c>
       <c r="E231" t="n">
-        <v>0.412</v>
+        <v>0.702</v>
       </c>
       <c r="F231" t="n">
-        <v>0.277</v>
+        <v>0.581</v>
       </c>
       <c r="G231" t="n">
-        <v>0.269</v>
+        <v>0.605</v>
       </c>
       <c r="H231" t="n">
-        <v>0.131</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7393,22 +7393,22 @@
         <v>1013</v>
       </c>
       <c r="E232" t="n">
-        <v>0.531</v>
+        <v>0.638</v>
       </c>
       <c r="F232" t="n">
-        <v>0.257</v>
+        <v>0.49</v>
       </c>
       <c r="G232" t="n">
-        <v>0.294</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H232" t="n">
-        <v>0.176</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7423,22 +7423,22 @@
         <v>895</v>
       </c>
       <c r="E233" t="n">
-        <v>0.44</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F233" t="n">
-        <v>0.334</v>
+        <v>0.505</v>
       </c>
       <c r="G233" t="n">
-        <v>0.326</v>
+        <v>0.571</v>
       </c>
       <c r="H233" t="n">
-        <v>0.221</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7453,22 +7453,22 @@
         <v>215</v>
       </c>
       <c r="E234" t="n">
-        <v>0.242</v>
+        <v>0.759</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0465</v>
+        <v>0.447</v>
       </c>
       <c r="G234" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="H234" t="n">
-        <v>0.0349</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7483,22 +7483,22 @@
         <v>325</v>
       </c>
       <c r="E235" t="n">
-        <v>0.285</v>
+        <v>0.525</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0431</v>
+        <v>0.231</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0501</v>
+        <v>0.314</v>
       </c>
       <c r="H235" t="n">
-        <v>0.0249</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7513,22 +7513,22 @@
         <v>253</v>
       </c>
       <c r="E236" t="n">
-        <v>0.31</v>
+        <v>0.522</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0277</v>
+        <v>0.265</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0431</v>
+        <v>0.284</v>
       </c>
       <c r="H236" t="n">
-        <v>0.0243</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7543,22 +7543,22 @@
         <v>623</v>
       </c>
       <c r="E237" t="n">
-        <v>0.475</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F237" t="n">
-        <v>0.371</v>
+        <v>0.506</v>
       </c>
       <c r="G237" t="n">
-        <v>0.365</v>
+        <v>0.588</v>
       </c>
       <c r="H237" t="n">
-        <v>0.26</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7573,22 +7573,22 @@
         <v>370</v>
       </c>
       <c r="E238" t="n">
-        <v>0.42</v>
+        <v>0.576</v>
       </c>
       <c r="F238" t="n">
-        <v>0.168</v>
+        <v>0.262</v>
       </c>
       <c r="G238" t="n">
-        <v>0.189</v>
+        <v>0.351</v>
       </c>
       <c r="H238" t="n">
-        <v>0.0969</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7603,22 +7603,22 @@
         <v>236</v>
       </c>
       <c r="E239" t="n">
-        <v>0.23</v>
+        <v>0.404</v>
       </c>
       <c r="F239" t="n">
-        <v>0.102</v>
+        <v>0.131</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0883</v>
+        <v>0.208</v>
       </c>
       <c r="H239" t="n">
-        <v>0.0586</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7633,22 +7633,22 @@
         <v>177</v>
       </c>
       <c r="E240" t="n">
-        <v>0.377</v>
+        <v>0.669</v>
       </c>
       <c r="F240" t="n">
-        <v>0.35</v>
+        <v>0.412</v>
       </c>
       <c r="G240" t="n">
-        <v>0.313</v>
+        <v>0.503</v>
       </c>
       <c r="H240" t="n">
-        <v>0.215</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -7663,22 +7663,22 @@
         <v>285</v>
       </c>
       <c r="E241" t="n">
-        <v>0.354</v>
+        <v>0.546</v>
       </c>
       <c r="F241" t="n">
-        <v>0.225</v>
+        <v>0.288</v>
       </c>
       <c r="G241" t="n">
-        <v>0.203</v>
+        <v>0.352</v>
       </c>
       <c r="H241" t="n">
-        <v>0.159</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -7693,22 +7693,22 @@
         <v>312</v>
       </c>
       <c r="E242" t="n">
-        <v>0.388</v>
+        <v>0.593</v>
       </c>
       <c r="F242" t="n">
-        <v>0.271</v>
+        <v>0.282</v>
       </c>
       <c r="G242" t="n">
-        <v>0.275</v>
+        <v>0.385</v>
       </c>
       <c r="H242" t="n">
-        <v>0.147</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -7723,22 +7723,22 @@
         <v>365</v>
       </c>
       <c r="E243" t="n">
-        <v>0.299</v>
+        <v>0.467</v>
       </c>
       <c r="F243" t="n">
-        <v>0.132</v>
+        <v>0.271</v>
       </c>
       <c r="G243" t="n">
-        <v>0.126</v>
+        <v>0.311</v>
       </c>
       <c r="H243" t="n">
-        <v>0.0735</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7753,22 +7753,22 @@
         <v>284</v>
       </c>
       <c r="E244" t="n">
-        <v>0.539</v>
+        <v>0.771</v>
       </c>
       <c r="F244" t="n">
-        <v>0.506</v>
+        <v>0.669</v>
       </c>
       <c r="G244" t="n">
-        <v>0.516</v>
+        <v>0.716</v>
       </c>
       <c r="H244" t="n">
-        <v>0.37</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7783,22 +7783,22 @@
         <v>328</v>
       </c>
       <c r="E245" t="n">
-        <v>0.41</v>
+        <v>0.507</v>
       </c>
       <c r="F245" t="n">
-        <v>0.308</v>
+        <v>0.543</v>
       </c>
       <c r="G245" t="n">
-        <v>0.31</v>
+        <v>0.501</v>
       </c>
       <c r="H245" t="n">
-        <v>0.238</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7813,22 +7813,22 @@
         <v>310</v>
       </c>
       <c r="E246" t="n">
-        <v>0.389</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F246" t="n">
-        <v>0.223</v>
+        <v>0.474</v>
       </c>
       <c r="G246" t="n">
-        <v>0.244</v>
+        <v>0.551</v>
       </c>
       <c r="H246" t="n">
-        <v>0.161</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7843,22 +7843,22 @@
         <v>1771</v>
       </c>
       <c r="E247" t="n">
-        <v>0.419</v>
+        <v>0.636</v>
       </c>
       <c r="F247" t="n">
-        <v>0.198</v>
+        <v>0.44</v>
       </c>
       <c r="G247" t="n">
-        <v>0.221</v>
+        <v>0.506</v>
       </c>
       <c r="H247" t="n">
-        <v>0.129</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7873,22 +7873,22 @@
         <v>261</v>
       </c>
       <c r="E248" t="n">
-        <v>0.414</v>
+        <v>0.645</v>
       </c>
       <c r="F248" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="H248" t="n">
         <v>0.493</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0.281</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7903,22 +7903,22 @@
         <v>163</v>
       </c>
       <c r="E249" t="n">
-        <v>0.478</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F249" t="n">
-        <v>0.546</v>
+        <v>0.619</v>
       </c>
       <c r="G249" t="n">
-        <v>0.511</v>
+        <v>0.68</v>
       </c>
       <c r="H249" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7933,22 +7933,22 @@
         <v>179</v>
       </c>
       <c r="E250" t="n">
-        <v>0.531</v>
+        <v>0.743</v>
       </c>
       <c r="F250" t="n">
-        <v>0.598</v>
+        <v>0.737</v>
       </c>
       <c r="G250" t="n">
-        <v>0.61</v>
+        <v>0.791</v>
       </c>
       <c r="H250" t="n">
-        <v>0.479</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7963,22 +7963,22 @@
         <v>288</v>
       </c>
       <c r="E251" t="n">
-        <v>0.541</v>
+        <v>0.769</v>
       </c>
       <c r="F251" t="n">
-        <v>0.503</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G251" t="n">
-        <v>0.515</v>
+        <v>0.764</v>
       </c>
       <c r="H251" t="n">
-        <v>0.371</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7993,22 +7993,22 @@
         <v>231</v>
       </c>
       <c r="E252" t="n">
-        <v>0.539</v>
+        <v>0.741</v>
       </c>
       <c r="F252" t="n">
-        <v>0.468</v>
+        <v>0.72</v>
       </c>
       <c r="G252" t="n">
-        <v>0.473</v>
+        <v>0.774</v>
       </c>
       <c r="H252" t="n">
-        <v>0.358</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8023,22 +8023,22 @@
         <v>106</v>
       </c>
       <c r="E253" t="n">
-        <v>0.637</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>0.481</v>
+        <v>0.708</v>
       </c>
       <c r="G253" t="n">
-        <v>0.528</v>
+        <v>0.792</v>
       </c>
       <c r="H253" t="n">
-        <v>0.397</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8053,22 +8053,22 @@
         <v>283</v>
       </c>
       <c r="E254" t="n">
-        <v>0.308</v>
+        <v>0.626</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0848</v>
+        <v>0.403</v>
       </c>
       <c r="G254" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="H254" t="n">
-        <v>0.0485</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8083,22 +8083,22 @@
         <v>153</v>
       </c>
       <c r="E255" t="n">
-        <v>0.466</v>
+        <v>0.71</v>
       </c>
       <c r="F255" t="n">
-        <v>0.516</v>
+        <v>0.575</v>
       </c>
       <c r="G255" t="n">
-        <v>0.434</v>
+        <v>0.708</v>
       </c>
       <c r="H255" t="n">
-        <v>0.297</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8113,22 +8113,22 @@
         <v>55</v>
       </c>
       <c r="E256" t="n">
-        <v>0.577</v>
+        <v>0.644</v>
       </c>
       <c r="F256" t="n">
-        <v>0.455</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G256" t="n">
-        <v>0.432</v>
+        <v>0.721</v>
       </c>
       <c r="H256" t="n">
-        <v>0.319</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8143,22 +8143,22 @@
         <v>143</v>
       </c>
       <c r="E257" t="n">
-        <v>0.464</v>
+        <v>0.597</v>
       </c>
       <c r="F257" t="n">
-        <v>0.242</v>
+        <v>0.476</v>
       </c>
       <c r="G257" t="n">
-        <v>0.274</v>
+        <v>0.539</v>
       </c>
       <c r="H257" t="n">
-        <v>0.162</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -8173,22 +8173,22 @@
         <v>9</v>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>0.527</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0927</v>
+        <v>0.49</v>
       </c>
       <c r="H258" t="n">
-        <v>0.065</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8203,22 +8203,22 @@
         <v>225</v>
       </c>
       <c r="E259" t="n">
-        <v>0.462</v>
+        <v>0.659</v>
       </c>
       <c r="F259" t="n">
-        <v>0.378</v>
+        <v>0.525</v>
       </c>
       <c r="G259" t="n">
-        <v>0.338</v>
+        <v>0.57</v>
       </c>
       <c r="H259" t="n">
-        <v>0.218</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8233,22 +8233,22 @@
         <v>126</v>
       </c>
       <c r="E260" t="n">
-        <v>0.508</v>
+        <v>0.823</v>
       </c>
       <c r="F260" t="n">
-        <v>0.437</v>
+        <v>0.659</v>
       </c>
       <c r="G260" t="n">
-        <v>0.44</v>
+        <v>0.725</v>
       </c>
       <c r="H260" t="n">
-        <v>0.31</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8263,22 +8263,22 @@
         <v>1129</v>
       </c>
       <c r="E261" t="n">
-        <v>0.22</v>
+        <v>0.475</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0602</v>
+        <v>0.117</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0803</v>
+        <v>0.221</v>
       </c>
       <c r="H261" t="n">
-        <v>0.0308</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8293,22 +8293,22 @@
         <v>267</v>
       </c>
       <c r="E262" t="n">
-        <v>0.554</v>
+        <v>0.738</v>
       </c>
       <c r="F262" t="n">
-        <v>0.539</v>
+        <v>0.676</v>
       </c>
       <c r="G262" t="n">
-        <v>0.552</v>
+        <v>0.721</v>
       </c>
       <c r="H262" t="n">
-        <v>0.35</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8323,22 +8323,22 @@
         <v>274</v>
       </c>
       <c r="E263" t="n">
-        <v>0.464</v>
+        <v>0.67</v>
       </c>
       <c r="F263" t="n">
-        <v>0.212</v>
+        <v>0.544</v>
       </c>
       <c r="G263" t="n">
-        <v>0.227</v>
+        <v>0.553</v>
       </c>
       <c r="H263" t="n">
-        <v>0.147</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8353,22 +8353,22 @@
         <v>36</v>
       </c>
       <c r="E264" t="n">
-        <v>0.412</v>
+        <v>0.652</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0556</v>
+        <v>0.417</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1</v>
+        <v>0.424</v>
       </c>
       <c r="H264" t="n">
-        <v>0.0706</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>coco_20_DA_hibrido_clasico_y_DM</t>
+          <t>coco_20_DA_hibrid</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8383,1966 +8383,1996 @@
         <v>57</v>
       </c>
       <c r="E265" t="n">
-        <v>0.435</v>
+        <v>0.467</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0351</v>
+        <v>0.333</v>
       </c>
       <c r="G265" t="n">
-        <v>0.0659</v>
+        <v>0.364</v>
       </c>
       <c r="H265" t="n">
-        <v>0.0289</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2693</v>
+        <v>5000</v>
       </c>
       <c r="D266" t="n">
-        <v>10777</v>
+        <v>36335</v>
       </c>
       <c r="E266" t="n">
-        <v>0.641</v>
+        <v>0.665</v>
       </c>
       <c r="F266" t="n">
-        <v>0.608</v>
+        <v>0.545</v>
       </c>
       <c r="G266" t="n">
-        <v>0.646</v>
+        <v>0.589</v>
       </c>
       <c r="H266" t="n">
-        <v>0.41</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>149</v>
+        <v>2693</v>
       </c>
       <c r="D267" t="n">
-        <v>314</v>
+        <v>10777</v>
       </c>
       <c r="E267" t="n">
-        <v>0.467</v>
+        <v>0.781</v>
       </c>
       <c r="F267" t="n">
-        <v>0.243</v>
+        <v>0.731</v>
       </c>
       <c r="G267" t="n">
-        <v>0.251</v>
+        <v>0.798</v>
       </c>
       <c r="H267" t="n">
-        <v>0.137</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>535</v>
+        <v>149</v>
       </c>
       <c r="D268" t="n">
-        <v>1918</v>
+        <v>314</v>
       </c>
       <c r="E268" t="n">
-        <v>0.523</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F268" t="n">
-        <v>0.416</v>
+        <v>0.484</v>
       </c>
       <c r="G268" t="n">
-        <v>0.41</v>
+        <v>0.549</v>
       </c>
       <c r="H268" t="n">
-        <v>0.24</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>motorcycle</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>159</v>
+        <v>535</v>
       </c>
       <c r="D269" t="n">
-        <v>367</v>
+        <v>1918</v>
       </c>
       <c r="E269" t="n">
-        <v>0.554</v>
+        <v>0.701</v>
       </c>
       <c r="F269" t="n">
-        <v>0.45</v>
+        <v>0.624</v>
       </c>
       <c r="G269" t="n">
-        <v>0.468</v>
+        <v>0.665</v>
       </c>
       <c r="H269" t="n">
-        <v>0.248</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>airplane</t>
+          <t>motorcycle</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="D270" t="n">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="E270" t="n">
-        <v>0.494</v>
+        <v>0.746</v>
       </c>
       <c r="F270" t="n">
-        <v>0.538</v>
+        <v>0.659</v>
       </c>
       <c r="G270" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.712</v>
       </c>
       <c r="H270" t="n">
-        <v>0.386</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>airplane</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="D271" t="n">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="E271" t="n">
-        <v>0.643</v>
+        <v>0.795</v>
       </c>
       <c r="F271" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="G271" t="n">
-        <v>0.593</v>
+        <v>0.88</v>
       </c>
       <c r="H271" t="n">
-        <v>0.467</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D272" t="n">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="E272" t="n">
-        <v>0.641</v>
+        <v>0.83</v>
       </c>
       <c r="F272" t="n">
-        <v>0.621</v>
+        <v>0.724</v>
       </c>
       <c r="G272" t="n">
-        <v>0.651</v>
+        <v>0.822</v>
       </c>
       <c r="H272" t="n">
-        <v>0.47</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>train</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="D273" t="n">
-        <v>414</v>
+        <v>190</v>
       </c>
       <c r="E273" t="n">
-        <v>0.391</v>
+        <v>0.838</v>
       </c>
       <c r="F273" t="n">
-        <v>0.302</v>
+        <v>0.8</v>
       </c>
       <c r="G273" t="n">
-        <v>0.281</v>
+        <v>0.883</v>
       </c>
       <c r="H273" t="n">
-        <v>0.174</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="D274" t="n">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E274" t="n">
-        <v>0.368</v>
+        <v>0.614</v>
       </c>
       <c r="F274" t="n">
-        <v>0.222</v>
+        <v>0.491</v>
       </c>
       <c r="G274" t="n">
-        <v>0.211</v>
+        <v>0.537</v>
       </c>
       <c r="H274" t="n">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>bench</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="D275" t="n">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="E275" t="n">
-        <v>0.403</v>
+        <v>0.649</v>
       </c>
       <c r="F275" t="n">
-        <v>0.165</v>
+        <v>0.418</v>
       </c>
       <c r="G275" t="n">
-        <v>0.174</v>
+        <v>0.502</v>
       </c>
       <c r="H275" t="n">
-        <v>0.101</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>bench</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="D276" t="n">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E276" t="n">
-        <v>0.518</v>
+        <v>0.555</v>
       </c>
       <c r="F276" t="n">
-        <v>0.164</v>
+        <v>0.364</v>
       </c>
       <c r="G276" t="n">
-        <v>0.186</v>
+        <v>0.375</v>
       </c>
       <c r="H276" t="n">
-        <v>0.11</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D277" t="n">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="E277" t="n">
-        <v>0.503</v>
+        <v>0.666</v>
       </c>
       <c r="F277" t="n">
-        <v>0.649</v>
+        <v>0.426</v>
       </c>
       <c r="G277" t="n">
-        <v>0.591</v>
+        <v>0.483</v>
       </c>
       <c r="H277" t="n">
-        <v>0.412</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D278" t="n">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E278" t="n">
-        <v>0.435</v>
+        <v>0.819</v>
       </c>
       <c r="F278" t="n">
-        <v>0.459</v>
+        <v>0.856</v>
       </c>
       <c r="G278" t="n">
-        <v>0.431</v>
+        <v>0.882</v>
       </c>
       <c r="H278" t="n">
-        <v>0.319</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="D279" t="n">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="E279" t="n">
-        <v>0.466</v>
+        <v>0.753</v>
       </c>
       <c r="F279" t="n">
-        <v>0.542</v>
+        <v>0.752</v>
       </c>
       <c r="G279" t="n">
-        <v>0.496</v>
+        <v>0.761</v>
       </c>
       <c r="H279" t="n">
-        <v>0.329</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="D280" t="n">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="E280" t="n">
-        <v>0.381</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="F280" t="n">
-        <v>0.525</v>
+        <v>0.739</v>
       </c>
       <c r="G280" t="n">
-        <v>0.419</v>
+        <v>0.821</v>
       </c>
       <c r="H280" t="n">
-        <v>0.256</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D281" t="n">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E281" t="n">
-        <v>0.476</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F281" t="n">
-        <v>0.457</v>
+        <v>0.712</v>
       </c>
       <c r="G281" t="n">
-        <v>0.425</v>
+        <v>0.753</v>
       </c>
       <c r="H281" t="n">
-        <v>0.278</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D282" t="n">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="E282" t="n">
-        <v>0.502</v>
+        <v>0.746</v>
       </c>
       <c r="F282" t="n">
-        <v>0.571</v>
+        <v>0.707</v>
       </c>
       <c r="G282" t="n">
-        <v>0.596</v>
+        <v>0.76</v>
       </c>
       <c r="H282" t="n">
-        <v>0.427</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>elephant</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D283" t="n">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="E283" t="n">
-        <v>0.454</v>
+        <v>0.772</v>
       </c>
       <c r="F283" t="n">
-        <v>0.634</v>
+        <v>0.869</v>
       </c>
       <c r="G283" t="n">
-        <v>0.576</v>
+        <v>0.85</v>
       </c>
       <c r="H283" t="n">
-        <v>0.444</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>zebra</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D284" t="n">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="E284" t="n">
-        <v>0.678</v>
+        <v>0.805</v>
       </c>
       <c r="F284" t="n">
-        <v>0.737</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>0.782</v>
+        <v>0.834</v>
       </c>
       <c r="H284" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>giraffe</t>
+          <t>zebra</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D285" t="n">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="E285" t="n">
-        <v>0.706</v>
+        <v>0.828</v>
       </c>
       <c r="F285" t="n">
-        <v>0.728</v>
+        <v>0.857</v>
       </c>
       <c r="G285" t="n">
-        <v>0.75</v>
+        <v>0.911</v>
       </c>
       <c r="H285" t="n">
-        <v>0.538</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>backpack</t>
+          <t>giraffe</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="D286" t="n">
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="E286" t="n">
-        <v>0.295</v>
+        <v>0.871</v>
       </c>
       <c r="F286" t="n">
-        <v>0.045</v>
+        <v>0.873</v>
       </c>
       <c r="G286" t="n">
-        <v>0.0653</v>
+        <v>0.915</v>
       </c>
       <c r="H286" t="n">
-        <v>0.0358</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>umbrella</t>
+          <t>backpack</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="D287" t="n">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="E287" t="n">
-        <v>0.455</v>
+        <v>0.523</v>
       </c>
       <c r="F287" t="n">
-        <v>0.335</v>
+        <v>0.237</v>
       </c>
       <c r="G287" t="n">
-        <v>0.318</v>
+        <v>0.28</v>
       </c>
       <c r="H287" t="n">
-        <v>0.18</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>handbag</t>
+          <t>umbrella</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="D288" t="n">
-        <v>540</v>
+        <v>407</v>
       </c>
       <c r="E288" t="n">
-        <v>0.245</v>
+        <v>0.649</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0259</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G288" t="n">
-        <v>0.0469</v>
+        <v>0.588</v>
       </c>
       <c r="H288" t="n">
-        <v>0.0216</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>handbag</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="D289" t="n">
-        <v>252</v>
+        <v>540</v>
       </c>
       <c r="E289" t="n">
-        <v>0.461</v>
+        <v>0.536</v>
       </c>
       <c r="F289" t="n">
-        <v>0.226</v>
+        <v>0.228</v>
       </c>
       <c r="G289" t="n">
-        <v>0.249</v>
+        <v>0.265</v>
       </c>
       <c r="H289" t="n">
-        <v>0.13</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>suitcase</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D290" t="n">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="E290" t="n">
-        <v>0.377</v>
+        <v>0.698</v>
       </c>
       <c r="F290" t="n">
-        <v>0.107</v>
+        <v>0.464</v>
       </c>
       <c r="G290" t="n">
-        <v>0.121</v>
+        <v>0.55</v>
       </c>
       <c r="H290" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>frisbee</t>
+          <t>suitcase</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D291" t="n">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="E291" t="n">
-        <v>0.614</v>
+        <v>0.591</v>
       </c>
       <c r="F291" t="n">
-        <v>0.484</v>
+        <v>0.555</v>
       </c>
       <c r="G291" t="n">
-        <v>0.503</v>
+        <v>0.573</v>
       </c>
       <c r="H291" t="n">
-        <v>0.367</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>skis</t>
+          <t>frisbee</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D292" t="n">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="E292" t="n">
-        <v>0.413</v>
+        <v>0.765</v>
       </c>
       <c r="F292" t="n">
-        <v>0.187</v>
+        <v>0.774</v>
       </c>
       <c r="G292" t="n">
-        <v>0.195</v>
+        <v>0.831</v>
       </c>
       <c r="H292" t="n">
-        <v>0.0848</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>snowboard</t>
+          <t>skis</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D293" t="n">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="E293" t="n">
-        <v>0.409</v>
+        <v>0.619</v>
       </c>
       <c r="F293" t="n">
-        <v>0.101</v>
+        <v>0.419</v>
       </c>
       <c r="G293" t="n">
-        <v>0.138</v>
+        <v>0.452</v>
       </c>
       <c r="H293" t="n">
-        <v>0.0804</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>kite</t>
+          <t>snowboard</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D294" t="n">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="E294" t="n">
-        <v>0.389</v>
+        <v>0.646</v>
       </c>
       <c r="F294" t="n">
-        <v>0.407</v>
+        <v>0.435</v>
       </c>
       <c r="G294" t="n">
-        <v>0.374</v>
+        <v>0.521</v>
       </c>
       <c r="H294" t="n">
-        <v>0.228</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>skateboard</t>
+          <t>kite</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D295" t="n">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="E295" t="n">
-        <v>0.477</v>
+        <v>0.618</v>
       </c>
       <c r="F295" t="n">
-        <v>0.408</v>
+        <v>0.637</v>
       </c>
       <c r="G295" t="n">
-        <v>0.382</v>
+        <v>0.626</v>
       </c>
       <c r="H295" t="n">
-        <v>0.223</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>surfboard</t>
+          <t>skateboard</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D296" t="n">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="E296" t="n">
-        <v>0.357</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="F296" t="n">
-        <v>0.285</v>
+        <v>0.749</v>
       </c>
       <c r="G296" t="n">
-        <v>0.216</v>
+        <v>0.766</v>
       </c>
       <c r="H296" t="n">
-        <v>0.11</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>bottle</t>
+          <t>surfboard</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>379</v>
+        <v>149</v>
       </c>
       <c r="D297" t="n">
-        <v>1013</v>
+        <v>267</v>
       </c>
       <c r="E297" t="n">
-        <v>0.494</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F297" t="n">
-        <v>0.246</v>
+        <v>0.578</v>
       </c>
       <c r="G297" t="n">
-        <v>0.291</v>
+        <v>0.619</v>
       </c>
       <c r="H297" t="n">
-        <v>0.176</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>cup</t>
+          <t>bottle</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D298" t="n">
-        <v>895</v>
+        <v>1013</v>
       </c>
       <c r="E298" t="n">
-        <v>0.441</v>
+        <v>0.634</v>
       </c>
       <c r="F298" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="G298" t="n">
-        <v>0.31</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H298" t="n">
-        <v>0.207</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>cup</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="D299" t="n">
-        <v>215</v>
+        <v>895</v>
       </c>
       <c r="E299" t="n">
-        <v>0.291</v>
+        <v>0.623</v>
       </c>
       <c r="F299" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.531</v>
       </c>
       <c r="G299" t="n">
-        <v>0.0829</v>
+        <v>0.57</v>
       </c>
       <c r="H299" t="n">
-        <v>0.0396</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D300" t="n">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="E300" t="n">
-        <v>0.301</v>
+        <v>0.726</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0596</v>
+        <v>0.423</v>
       </c>
       <c r="G300" t="n">
-        <v>0.0569</v>
+        <v>0.517</v>
       </c>
       <c r="H300" t="n">
-        <v>0.0271</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D301" t="n">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="E301" t="n">
-        <v>0.163</v>
+        <v>0.472</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0158</v>
+        <v>0.258</v>
       </c>
       <c r="G301" t="n">
-        <v>0.0314</v>
+        <v>0.299</v>
       </c>
       <c r="H301" t="n">
-        <v>0.0154</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>bowl</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="D302" t="n">
-        <v>623</v>
+        <v>253</v>
       </c>
       <c r="E302" t="n">
-        <v>0.423</v>
+        <v>0.48</v>
       </c>
       <c r="F302" t="n">
-        <v>0.377</v>
+        <v>0.266</v>
       </c>
       <c r="G302" t="n">
-        <v>0.358</v>
+        <v>0.288</v>
       </c>
       <c r="H302" t="n">
-        <v>0.252</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>bowl</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="D303" t="n">
-        <v>370</v>
+        <v>623</v>
       </c>
       <c r="E303" t="n">
-        <v>0.334</v>
+        <v>0.65</v>
       </c>
       <c r="F303" t="n">
-        <v>0.127</v>
+        <v>0.522</v>
       </c>
       <c r="G303" t="n">
-        <v>0.147</v>
+        <v>0.578</v>
       </c>
       <c r="H303" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D304" t="n">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="E304" t="n">
-        <v>0.264</v>
+        <v>0.487</v>
       </c>
       <c r="F304" t="n">
-        <v>0.106</v>
+        <v>0.29</v>
       </c>
       <c r="G304" t="n">
-        <v>0.0917</v>
+        <v>0.345</v>
       </c>
       <c r="H304" t="n">
-        <v>0.0614</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>sandwich</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D305" t="n">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="E305" t="n">
-        <v>0.396</v>
+        <v>0.493</v>
       </c>
       <c r="F305" t="n">
-        <v>0.328</v>
+        <v>0.181</v>
       </c>
       <c r="G305" t="n">
-        <v>0.273</v>
+        <v>0.244</v>
       </c>
       <c r="H305" t="n">
-        <v>0.173</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>sandwich</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D306" t="n">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E306" t="n">
-        <v>0.348</v>
+        <v>0.65</v>
       </c>
       <c r="F306" t="n">
-        <v>0.27</v>
+        <v>0.435</v>
       </c>
       <c r="G306" t="n">
-        <v>0.218</v>
+        <v>0.519</v>
       </c>
       <c r="H306" t="n">
-        <v>0.171</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>broccoli</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D307" t="n">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E307" t="n">
-        <v>0.395</v>
+        <v>0.468</v>
       </c>
       <c r="F307" t="n">
-        <v>0.321</v>
+        <v>0.337</v>
       </c>
       <c r="G307" t="n">
-        <v>0.297</v>
+        <v>0.348</v>
       </c>
       <c r="H307" t="n">
-        <v>0.151</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>carrot</t>
+          <t>broccoli</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D308" t="n">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="E308" t="n">
-        <v>0.263</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F308" t="n">
-        <v>0.164</v>
+        <v>0.337</v>
       </c>
       <c r="G308" t="n">
-        <v>0.124</v>
+        <v>0.39</v>
       </c>
       <c r="H308" t="n">
-        <v>0.0669</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>carrot</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D309" t="n">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="E309" t="n">
-        <v>0.533</v>
+        <v>0.382</v>
       </c>
       <c r="F309" t="n">
-        <v>0.514</v>
+        <v>0.293</v>
       </c>
       <c r="G309" t="n">
-        <v>0.517</v>
+        <v>0.276</v>
       </c>
       <c r="H309" t="n">
-        <v>0.377</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>donut</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="D310" t="n">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="E310" t="n">
-        <v>0.38</v>
+        <v>0.768</v>
       </c>
       <c r="F310" t="n">
-        <v>0.305</v>
+        <v>0.669</v>
       </c>
       <c r="G310" t="n">
-        <v>0.269</v>
+        <v>0.735</v>
       </c>
       <c r="H310" t="n">
-        <v>0.21</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cake</t>
+          <t>donut</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D311" t="n">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E311" t="n">
-        <v>0.373</v>
+        <v>0.493</v>
       </c>
       <c r="F311" t="n">
-        <v>0.174</v>
+        <v>0.552</v>
       </c>
       <c r="G311" t="n">
-        <v>0.207</v>
+        <v>0.477</v>
       </c>
       <c r="H311" t="n">
-        <v>0.128</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>cake</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>580</v>
+        <v>124</v>
       </c>
       <c r="D312" t="n">
-        <v>1771</v>
+        <v>310</v>
       </c>
       <c r="E312" t="n">
-        <v>0.376</v>
+        <v>0.655</v>
       </c>
       <c r="F312" t="n">
-        <v>0.206</v>
+        <v>0.522</v>
       </c>
       <c r="G312" t="n">
-        <v>0.207</v>
+        <v>0.569</v>
       </c>
       <c r="H312" t="n">
-        <v>0.12</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>couch</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>195</v>
+        <v>580</v>
       </c>
       <c r="D313" t="n">
-        <v>261</v>
+        <v>1771</v>
       </c>
       <c r="E313" t="n">
-        <v>0.401</v>
+        <v>0.589</v>
       </c>
       <c r="F313" t="n">
-        <v>0.414</v>
+        <v>0.46</v>
       </c>
       <c r="G313" t="n">
-        <v>0.369</v>
+        <v>0.499</v>
       </c>
       <c r="H313" t="n">
-        <v>0.245</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>couch</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="D314" t="n">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="E314" t="n">
-        <v>0.507</v>
+        <v>0.576</v>
       </c>
       <c r="F314" t="n">
-        <v>0.466</v>
+        <v>0.632</v>
       </c>
       <c r="G314" t="n">
-        <v>0.471</v>
+        <v>0.635</v>
       </c>
       <c r="H314" t="n">
-        <v>0.309</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>toilet</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>149</v>
       </c>
       <c r="D315" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E315" t="n">
-        <v>0.516</v>
+        <v>0.679</v>
       </c>
       <c r="F315" t="n">
-        <v>0.609</v>
+        <v>0.571</v>
       </c>
       <c r="G315" t="n">
-        <v>0.595</v>
+        <v>0.65</v>
       </c>
       <c r="H315" t="n">
-        <v>0.463</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>tv</t>
+          <t>toilet</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="D316" t="n">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="E316" t="n">
-        <v>0.488</v>
+        <v>0.75</v>
       </c>
       <c r="F316" t="n">
-        <v>0.526</v>
+        <v>0.726</v>
       </c>
       <c r="G316" t="n">
-        <v>0.505</v>
+        <v>0.791</v>
       </c>
       <c r="H316" t="n">
-        <v>0.365</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>laptop</t>
+          <t>tv</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D317" t="n">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="E317" t="n">
-        <v>0.483</v>
+        <v>0.786</v>
       </c>
       <c r="F317" t="n">
-        <v>0.446</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="G317" t="n">
-        <v>0.457</v>
+        <v>0.749</v>
       </c>
       <c r="H317" t="n">
-        <v>0.34</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>laptop</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="D318" t="n">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="E318" t="n">
-        <v>0.466</v>
+        <v>0.714</v>
       </c>
       <c r="F318" t="n">
-        <v>0.436</v>
+        <v>0.727</v>
       </c>
       <c r="G318" t="n">
-        <v>0.461</v>
+        <v>0.782</v>
       </c>
       <c r="H318" t="n">
-        <v>0.353</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>remote</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D319" t="n">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="E319" t="n">
-        <v>0.234</v>
+        <v>0.777</v>
       </c>
       <c r="F319" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.717</v>
       </c>
       <c r="G319" t="n">
-        <v>0.0675</v>
+        <v>0.78</v>
       </c>
       <c r="H319" t="n">
-        <v>0.0394</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>keyboard</t>
+          <t>remote</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D320" t="n">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="E320" t="n">
-        <v>0.381</v>
+        <v>0.569</v>
       </c>
       <c r="F320" t="n">
-        <v>0.425</v>
+        <v>0.442</v>
       </c>
       <c r="G320" t="n">
-        <v>0.407</v>
+        <v>0.466</v>
       </c>
       <c r="H320" t="n">
-        <v>0.266</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>microwave</t>
+          <t>keyboard</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D321" t="n">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="E321" t="n">
-        <v>0.531</v>
+        <v>0.639</v>
       </c>
       <c r="F321" t="n">
-        <v>0.327</v>
+        <v>0.595</v>
       </c>
       <c r="G321" t="n">
-        <v>0.363</v>
+        <v>0.671</v>
       </c>
       <c r="H321" t="n">
-        <v>0.263</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>oven</t>
+          <t>microwave</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D322" t="n">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="E322" t="n">
-        <v>0.378</v>
+        <v>0.613</v>
       </c>
       <c r="F322" t="n">
-        <v>0.259</v>
+        <v>0.719</v>
       </c>
       <c r="G322" t="n">
-        <v>0.24</v>
+        <v>0.722</v>
       </c>
       <c r="H322" t="n">
-        <v>0.144</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>toaster</t>
+          <t>oven</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D323" t="n">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="E323" t="n">
-        <v>1</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="G323" t="n">
-        <v>0.0571</v>
+        <v>0.511</v>
       </c>
       <c r="H323" t="n">
-        <v>0.0274</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>sink</t>
+          <t>toaster</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="D324" t="n">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="E324" t="n">
-        <v>0.413</v>
+        <v>0.516</v>
       </c>
       <c r="F324" t="n">
         <v>0.333</v>
       </c>
       <c r="G324" t="n">
-        <v>0.317</v>
+        <v>0.505</v>
       </c>
       <c r="H324" t="n">
-        <v>0.194</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>refrigerator</t>
+          <t>sink</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="D325" t="n">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="E325" t="n">
-        <v>0.502</v>
+        <v>0.644</v>
       </c>
       <c r="F325" t="n">
-        <v>0.456</v>
+        <v>0.52</v>
       </c>
       <c r="G325" t="n">
-        <v>0.426</v>
+        <v>0.586</v>
       </c>
       <c r="H325" t="n">
-        <v>0.288</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>refrigerator</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="D326" t="n">
-        <v>1129</v>
+        <v>126</v>
       </c>
       <c r="E326" t="n">
-        <v>0.211</v>
+        <v>0.745</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0576</v>
+        <v>0.659</v>
       </c>
       <c r="G326" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.709</v>
       </c>
       <c r="H326" t="n">
-        <v>0.0267</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>book</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D327" t="n">
-        <v>267</v>
+        <v>1129</v>
       </c>
       <c r="E327" t="n">
-        <v>0.516</v>
+        <v>0.438</v>
       </c>
       <c r="F327" t="n">
-        <v>0.519</v>
+        <v>0.191</v>
       </c>
       <c r="G327" t="n">
-        <v>0.533</v>
+        <v>0.229</v>
       </c>
       <c r="H327" t="n">
-        <v>0.335</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>vase</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="D328" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E328" t="n">
-        <v>0.354</v>
+        <v>0.707</v>
       </c>
       <c r="F328" t="n">
-        <v>0.179</v>
+        <v>0.667</v>
       </c>
       <c r="G328" t="n">
-        <v>0.199</v>
+        <v>0.7</v>
       </c>
       <c r="H328" t="n">
-        <v>0.122</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>scissors</t>
+          <t>vase</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D329" t="n">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="E329" t="n">
-        <v>0.167</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0278</v>
+        <v>0.507</v>
       </c>
       <c r="G329" t="n">
-        <v>0.0561</v>
+        <v>0.523</v>
       </c>
       <c r="H329" t="n">
-        <v>0.0396</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>coco_20</t>
+          <t>coco_20_DA_DM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
+          <t>scissors</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>28</v>
+      </c>
+      <c r="D330" t="n">
+        <v>36</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>coco_20_DA_DM</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
           <t>toothbrush</t>
         </is>
       </c>
-      <c r="C330" t="n">
+      <c r="C331" t="n">
         <v>34</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D331" t="n">
         <v>57</v>
       </c>
-      <c r="E330" t="n">
-        <v>1</v>
-      </c>
-      <c r="F330" t="n">
-        <v>0</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0204</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0.00961</v>
+      <c r="E331" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
